--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_ex03_end.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_ex03_end.xlsx
@@ -292,7 +292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The riches buried in these tombs are usually known as "Knight's Treasures." The information regarding these treasures have been exchanged and passed around between networks of bounty hunters and messengers.
+    <t xml:space="preserve">The riches buried in these tombs are usually known as 'Knight's Treasures.' The information regarding these treasures have been exchanged and passed around between networks of bounty hunters and messengers.
 </t>
   </si>
   <si>
